--- a/xlsx/country_comparison/support_binary_positive.xlsx
+++ b/xlsx/country_comparison/support_binary_positive.xlsx
@@ -401,7 +401,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.542040004729187</v>
+        <v>0.542040008566919</v>
       </c>
       <c r="C2" t="n">
         <v>0.757320866764204</v>
@@ -424,7 +424,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.558431319432218</v>
+        <v>0.558431322893747</v>
       </c>
       <c r="C3" t="n">
         <v>0.726238536290562</v>
@@ -447,7 +447,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.52487011843819</v>
+        <v>0.524870121220232</v>
       </c>
       <c r="C4" t="n">
         <v>0.735027761278094</v>
